--- a/data_processing_elements-ERC.xlsx
+++ b/data_processing_elements-ERC.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ca058780ebd4867/ProPASS/dpe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atrottier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{EAFA0F5D-D41C-4C73-B15F-460B5AC822F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20332F02-61B5-442A-A99C-B1B4ED3D9DD0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40A6465-131A-499B-B562-6C600926FFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1392" windowWidth="23256" windowHeight="12456" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_processing_elements!$A$1:$U$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_processing_elements!$A$1:$S$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="491">
   <si>
     <t>index</t>
   </si>
@@ -96,12 +96,6 @@
   </si>
   <si>
     <t>Mlstr_harmo::algorithm</t>
-  </si>
-  <si>
-    <t>comment_question_for_cohort</t>
-  </si>
-  <si>
-    <t>response_from_cohort</t>
   </si>
   <si>
     <t>adm_id</t>
@@ -977,12 +971,6 @@
     <t>items</t>
   </si>
   <si>
-    <t>Please confirm the date format</t>
-  </si>
-  <si>
-    <t>Please confirm/adjust/comment the recoding, we are not 100% sure to understand how the education system translate to the categories desired for harmonization.</t>
-  </si>
-  <si>
     <t>.=missing</t>
   </si>
   <si>
@@ -1015,9 +1003,6 @@
   <si>
     <t>Date on which participant completed telephone interview in wave 1 (2016/2017); in this wave, only wrist accelerometer was placed, but this date is provided as some basic demographic information was only collected on this baseline measurement (i.e., participant education level and participant/head of hosehold employment status/classification; those variables named starting with 'w17'). Recorded by member of research team. 
 Format: date (long; %tdD_m_Y)</t>
-  </si>
-  <si>
-    <t>format(as.Date(w17fecha_ent, format = "%d-%m-%Y"), "%Y-%m-%d")</t>
   </si>
   <si>
     <t>w23sexo</t>
@@ -1064,9 +1049,6 @@
 7= University studies (high level)
 8= Others
 9= Don't known or refuse to answer(DK/NA)</t>
-  </si>
-  <si>
-    <t>recode(1=0; 2=0; 3=0; 4=1; 5=1; 6=3; 7=3; ELSE = NA)</t>
   </si>
   <si>
     <t>w17p210a</t>
@@ -1267,12 +1249,6 @@
     <t>w23masa_gr/w23peso*100</t>
   </si>
   <si>
-    <t>ifelse(!is.na(w23peso) &amp; !is.na(w23masa_gr), "Bioelectrical impedance measurement (Tanita)", NA)</t>
-  </si>
-  <si>
-    <t>Do you have the Tanita model used, if so, please provide it.</t>
-  </si>
-  <si>
     <t>w23pas_24h</t>
   </si>
   <si>
@@ -1282,9 +1258,6 @@
     <t>Systolic blood pressure (mean of 24-h measurements), measured by 24-h ABPM (Ambulatory Blood Pressure Monitoring).</t>
   </si>
   <si>
-    <t>Can you secify what is the difference between casual systolic bp and systolic bp?</t>
-  </si>
-  <si>
     <t>w23pad_24h</t>
   </si>
   <si>
@@ -1294,9 +1267,6 @@
     <t>Diastolic blood pressure (mean of 24-h measurements), measured by 24-h ABPM (Ambulatory Blood Pressure Monitoring).</t>
   </si>
   <si>
-    <t>Can you secify what is the difference between casual sdiastolic bp and diastolic bp?</t>
-  </si>
-  <si>
     <t>w23fc_cas</t>
   </si>
   <si>
@@ -1304,9 +1274,6 @@
   </si>
   <si>
     <t>Casual heart rate, measured by 24-h ABPM (Ambulatory Blood Pressure Monitoring).</t>
-  </si>
-  <si>
-    <t>Can you confirm that casual heart rat is heart rate at rest</t>
   </si>
   <si>
     <t>w23hematies</t>
@@ -1374,9 +1341,6 @@
     <t>mg/dL;
 mg/dL;
 mg/dL</t>
-  </si>
-  <si>
-    <t>(w23colesterol - w23colesterolhdl - (w23trigliceridos/5))/38.67</t>
   </si>
   <si>
     <t>w23trigliceridos</t>
@@ -1423,20 +1387,6 @@
   </si>
   <si>
     <t>Total energy intake. Diet information was collected using the HD-ENRICA dietary history (computerized administered by a trained interviewer). It collects standardized information on 861 foods that can be cooked in 29 different ways (including mixed forms of cooking and food preservation methods). Not all the participants gave their consent for the dietary history, so there is a higher number of missing data in these variables than in others.</t>
-  </si>
-  <si>
-    <t>w23xalcohol4c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average alcohol intake from HD ENRICA (categorized)
-</t>
-  </si>
-  <si>
-    <t>0 =Never drinker
-1 =Moderate drinker ( &lt;24g/día for women; &lt;40g/día for men)
-2 =Heavy drinker (&gt;=24g/día for women; &gt;=40g/día for men; and binge drinkers)
-3 =Ex-drinker
-.=missing</t>
   </si>
   <si>
     <t>w23p18</t>
@@ -1569,15 +1519,6 @@
     <t>recode(1 = 1; ELSE = NA)</t>
   </si>
   <si>
-    <t>Can you provide us with the variable and the list of generic medication names that fall into lipid lowering medication?</t>
-  </si>
-  <si>
-    <t>Can you provide us with the variable and the list of generic medication names that fall into blood pressure medication?</t>
-  </si>
-  <si>
-    <t>Can you provide us with the variable and the list of generic medication names that fall into diabetes medication?</t>
-  </si>
-  <si>
     <t>w23p38_14</t>
   </si>
   <si>
@@ -1830,6 +1771,112 @@
 w23p34_18 &gt; 0 | w23p34_14 &gt; 0 | w23p34_15 &gt; 0 | w23p34_16 &gt; 0 | w23p34_17 &gt; 0 | w23p34_19 &gt; 0 ~ 1L;
 w23p34_18 == 0 &amp; w23p34_14 == 0 &amp; w23p34_15 == 0 &amp; w23p34_16 == 0 &amp; w23p34_17 == 0 &amp; w23p34_19 == 0 ~ 2L;
 ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>w23olbebidas</t>
+  </si>
+  <si>
+    <t>w23alcohol_01</t>
+  </si>
+  <si>
+    <t>w23p19_1</t>
+  </si>
+  <si>
+    <t>w23_lipid_low_med_y_n</t>
+  </si>
+  <si>
+    <t>w23_bp_med_y_n</t>
+  </si>
+  <si>
+    <t>w23_diabetes_med_y_n</t>
+  </si>
+  <si>
+    <t>Alcohol from alcoholic beverages (excluding that from vinegar) (g/day)</t>
+  </si>
+  <si>
+    <t>Alcohol frequency intake</t>
+  </si>
+  <si>
+    <t>number of cigarettes/day</t>
+  </si>
+  <si>
+    <t>List of prescribed medications in home: ATCs lipid lowering medication (i.e., C10A or C10B)</t>
+  </si>
+  <si>
+    <t>List of prescribed medications in home: ATCs antihypertesive medication (i.e., C02AA or C02AB ...)</t>
+  </si>
+  <si>
+    <t>List of prescribed medications in home: ATCs antidiabetic (i.e., A10A or A10B)</t>
+  </si>
+  <si>
+    <t>participant height in cm. Researcher measured. Height was measured at home under standardized conditions using a portable extendable stadiometer (model Ka We 44 444 Seca). Two measurements were taken and the mean of both measures was recorded.;
+participant height in cm. Self-reported. 
+Questionnaire item (Spanish): ¿Cuánto mide, aproximadamente, sin zapatos?
+Questionnaire item (English): How tall are you, approximately, without shoes?</t>
+  </si>
+  <si>
+    <t>Variable derived from HD ENRICA data (dietary diary)</t>
+  </si>
+  <si>
+    <t>During the past 12 months, how often have you had alcoholic beverages?</t>
+  </si>
+  <si>
+    <t>How many cigarettes do you smoke on average per day?</t>
+  </si>
+  <si>
+    <t>During the nurse's visit to the participants' home, they are asked to show all the boxes of medications they regularly consume and the prescriptions, and the nurse writes down all the medications (up to 10 medications). Each recorded medication has been assigned the corresponding ATC code, and this variable has been coded as yes/no based on the list of ATC codes related to lipid-lowering medications proposed by PROPASS (see sheet "ATCs_med" in this document).</t>
+  </si>
+  <si>
+    <t>During the nurse's visit to the participants' home, they are asked to show all the boxes of medications they regularly consume and the prescriptions, and the nurse writes down all the medications (up to 10 medications). Each recorded medication has been assigned the corresponding ATC code, and this variable has been coded as yes/no based on the list of ATC codes related to antihypertensive medications proposed by PROPASS (see sheet "ATCs_med" in this document).</t>
+  </si>
+  <si>
+    <t>During the nurse's visit to the participants' home, they are asked to show all the boxes of medications they regularly consume and the prescriptions, and the nurse writes down all the medications (up to 10 medications). Each recorded medication has been assigned the corresponding ATC code, and this variable has been coded as yes/no based on the list of ATC codes related to antidiabetic medications proposed by PROPASS (see sheet "ATCs_med" in this document).</t>
+  </si>
+  <si>
+    <t>case_when(
+!is.na(w23date_ent) ~ format(as.Date(w23date_ent, format = "%d/%m/%Y"), "%Y-%m-%d");
+!is.na(w17fecha_ent) ~ format(as.Date(w17fecha_ent, format = "%d/%m/%Y"), "%Y-%m-%d");
+ELSE ~ as.Date(NA))</t>
+  </si>
+  <si>
+    <t>recode(1=0; 2=0; 3=0; 4=0; 5=1; 6=3; 7=3; ELSE = NA)</t>
+  </si>
+  <si>
+    <t>ifelse(!is.na(w23peso) &amp; !is.na(w23masa_gr), "Bioelectrical impedance measurement (Tanita SC-240MA)", NA)</t>
+  </si>
+  <si>
+    <t>round((w23colesterol - w23colesterolhdl - (w23trigliceridos/5))/38.67, 2)</t>
+  </si>
+  <si>
+    <t>w23olbebidas*7</t>
+  </si>
+  <si>
+    <t>1=Daily or almost daily; 
+2=5-6 days per week; 
+3=3-4 days per week;
+4=1-2 days per week;
+5=2 -3 days in a month;
+6=Once a month;
+7=Less than once a month;
+8=No, in the last 12 months, I have stopped drinking alcohol;
+9=Never or just a few sips to try it throughout your life;
+10=DK/NA</t>
+  </si>
+  <si>
+    <t>Wording is: During the past 12 months, how often have you had alcoholic beverages?</t>
+  </si>
+  <si>
+    <t>recode(1=3; 2=3; 3=2; 4=2; 6=1; 7=0; 8=0; 9=0; 10=NA; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>cig/day</t>
+  </si>
+  <si>
+    <t>w23p19_1*7</t>
+  </si>
+  <si>
+    <t>0=No 
+1=Yes</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1918,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1896,12 +1943,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1915,7 +1956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1931,9 +1972,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1953,10 +1991,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2297,13 +2331,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E8173B-75E7-48BF-A0E5-5399D58BE189}">
-  <dimension ref="A1:U84"/>
+  <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,21 +2350,20 @@
     <col min="6" max="6" width="8.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="2"/>
     <col min="8" max="8" width="8.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" style="9" customWidth="1"/>
     <col min="10" max="10" width="25.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="26.42578125" style="2" customWidth="1"/>
     <col min="12" max="12" width="30.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" style="10" customWidth="1"/>
+    <col min="13" max="13" width="31.85546875" style="9" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" style="2" customWidth="1"/>
     <col min="15" max="15" width="21.28515625" style="2" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" style="2" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" style="2" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" style="2" customWidth="1"/>
     <col min="19" max="19" width="19.85546875" style="2" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2355,10 +2388,10 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -2367,7 +2400,7 @@
       <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -2388,4289 +2421,4132 @@
       <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="12" t="s">
-        <v>296</v>
+      <c r="I2" s="8"/>
+      <c r="J2" s="11" t="s">
+        <v>292</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="M2" s="9"/>
+        <v>294</v>
+      </c>
+      <c r="M2" s="8"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="S2" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="12" t="s">
-        <v>299</v>
+        <v>30</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="11" t="s">
+        <v>295</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>33</v>
+        <v>297</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>303</v>
+      <c r="I4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>298</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>40</v>
+        <v>299</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="12" t="s">
-        <v>306</v>
+      <c r="I5" s="8"/>
+      <c r="J5" s="11" t="s">
+        <v>301</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>33</v>
+        <v>303</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="1:21" ht="153" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="153" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>309</v>
+      <c r="I6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>304</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>312</v>
+        <v>306</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>307</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="1:21" ht="127.5" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>56</v>
+      <c r="I7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="9"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:21" ht="63.75" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>314</v>
+      <c r="I8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>308</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>317</v>
+        <v>310</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-    </row>
-    <row r="9" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>56</v>
+      <c r="I9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="9"/>
+      <c r="M9" s="8"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="12" t="s">
-        <v>56</v>
+      <c r="I10" s="8"/>
+      <c r="J10" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="9"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-    </row>
-    <row r="11" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="12" t="s">
-        <v>319</v>
+      <c r="I11" s="8"/>
+      <c r="J11" s="11" t="s">
+        <v>313</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>322</v>
+        <v>315</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" ht="63.75" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>314</v>
+      <c r="I12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>308</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>317</v>
+        <v>310</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-    </row>
-    <row r="13" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>326</v>
+      <c r="I13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>320</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>329</v>
+        <v>322</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-    </row>
-    <row r="14" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>326</v>
+      <c r="I14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>320</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>329</v>
+        <v>322</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-    </row>
-    <row r="15" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>56</v>
+      <c r="I15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="9"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>332</v>
+      <c r="I16" s="8"/>
+      <c r="J16" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>326</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>291</v>
+        <v>473</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="114" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>332</v>
+      <c r="I17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>326</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>291</v>
+        <v>327</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-    </row>
-    <row r="18" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>337</v>
+      <c r="I18" s="8"/>
+      <c r="J18" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>331</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>291</v>
+        <v>332</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-    </row>
-    <row r="19" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="114" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>337</v>
+      <c r="I19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>331</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>291</v>
+        <v>332</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="S19" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="12" t="s">
-        <v>341</v>
+      <c r="I20" s="8"/>
+      <c r="J20" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>291</v>
+        <v>337</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="12" t="s">
-        <v>344</v>
+      <c r="I21" s="8"/>
+      <c r="J21" s="11" t="s">
+        <v>338</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>291</v>
+        <v>339</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-    </row>
-    <row r="22" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>344</v>
+      <c r="I22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>338</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>291</v>
+        <v>339</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-    </row>
-    <row r="23" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>348</v>
+      <c r="I23" s="8"/>
+      <c r="J23" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>342</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>345</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-    </row>
-    <row r="24" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>348</v>
+      <c r="I24" s="8"/>
+      <c r="J24" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>342</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>345</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="T24" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="U24" s="3"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="F25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="12" t="s">
-        <v>355</v>
+      <c r="I25" s="8"/>
+      <c r="J25" s="11" t="s">
+        <v>347</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>291</v>
+        <v>349</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T25" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="U25" s="3"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="12" t="s">
-        <v>359</v>
+      <c r="I26" s="8"/>
+      <c r="J26" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>291</v>
+        <v>352</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T26" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="U26" s="3"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="H27" s="3"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="N27" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T27" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="U27" s="3"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="H28" s="3"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="12" t="s">
-        <v>56</v>
+      <c r="I28" s="8"/>
+      <c r="J28" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="9"/>
+      <c r="M28" s="8"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-    </row>
-    <row r="29" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>56</v>
+      <c r="I29" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="9"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="H30" s="3"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="12" t="s">
-        <v>367</v>
+      <c r="I30" s="8"/>
+      <c r="J30" s="11" t="s">
+        <v>356</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>291</v>
+        <v>358</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="H31" s="3"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="12" t="s">
-        <v>372</v>
+      <c r="I31" s="8"/>
+      <c r="J31" s="11" t="s">
+        <v>361</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>291</v>
+        <v>358</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="H32" s="3"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="12" t="s">
-        <v>374</v>
+      <c r="I32" s="8"/>
+      <c r="J32" s="11" t="s">
+        <v>363</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>291</v>
+        <v>358</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="K33" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="L33" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>291</v>
+        <v>358</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H34" s="3"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="12" t="s">
-        <v>379</v>
+      <c r="I34" s="8"/>
+      <c r="J34" s="11" t="s">
+        <v>368</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>291</v>
+        <v>358</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-    </row>
-    <row r="35" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H35" s="3"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>382</v>
+      <c r="I35" s="8"/>
+      <c r="J35" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>371</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>385</v>
+        <v>372</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>374</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H36" s="3"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="12" t="s">
-        <v>387</v>
+      <c r="I36" s="8"/>
+      <c r="J36" s="11" t="s">
+        <v>375</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>291</v>
+        <v>358</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="H37" s="3"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="N37" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="O37" s="3"/>
       <c r="P37" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="F38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="H38" s="3"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="12" t="s">
-        <v>390</v>
+      <c r="I38" s="8"/>
+      <c r="J38" s="11" t="s">
+        <v>378</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>291</v>
+        <v>380</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-    </row>
-    <row r="39" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>56</v>
+      <c r="I39" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-      <c r="M39" s="9"/>
+      <c r="M39" s="8"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="F40" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H40" s="3"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>394</v>
+      <c r="I40" s="8"/>
+      <c r="J40" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>382</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>396</v>
+        <v>383</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>384</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>56</v>
+      <c r="I41" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
-      <c r="M41" s="9"/>
+      <c r="M41" s="8"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="H42" s="3"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="12" t="s">
-        <v>397</v>
+      <c r="I42" s="8"/>
+      <c r="J42" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>291</v>
+        <v>387</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O42" s="3"/>
       <c r="P42" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="F43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="H43" s="3"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="3"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="M43" s="8"/>
+      <c r="N43" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-    </row>
-    <row r="44" spans="1:21" ht="102" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="153" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>400</v>
+      <c r="I44" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>462</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>169</v>
+        <v>468</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>402</v>
+        <v>475</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>485</v>
       </c>
       <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
+      <c r="O44" s="3" t="s">
+        <v>486</v>
+      </c>
       <c r="P44" s="3" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-    </row>
-    <row r="45" spans="1:21" ht="89.25" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="F45" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>403</v>
+      <c r="I45" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>388</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>406</v>
+        <v>390</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-    </row>
-    <row r="46" spans="1:21" ht="89.25" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>403</v>
+      <c r="I46" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>388</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>406</v>
+        <v>390</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="U46" s="3"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="H47" s="3"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="3"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="M47" s="8"/>
+      <c r="N47" s="3" t="s">
+        <v>488</v>
+      </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-    </row>
-    <row r="48" spans="1:21" ht="89.25" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>408</v>
+      <c r="I48" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>393</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>410</v>
+        <v>394</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>395</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-    </row>
-    <row r="49" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="114" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="F49" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>412</v>
+      <c r="I49" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>397</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>414</v>
+        <v>398</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>399</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-    </row>
-    <row r="50" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="S49" s="11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="F50" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>418</v>
+      <c r="I50" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>403</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>414</v>
+        <v>404</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>399</v>
       </c>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="S50" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-    </row>
-    <row r="51" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="S50" s="11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>56</v>
+      <c r="I51" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
-      <c r="M51" s="9"/>
+      <c r="M51" s="8"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-    </row>
-    <row r="52" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>56</v>
+      <c r="I52" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="9"/>
+      <c r="M52" s="8"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-    </row>
-    <row r="53" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>422</v>
+      <c r="I53" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>407</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>414</v>
+        <v>409</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>399</v>
       </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-    </row>
-    <row r="54" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>56</v>
+      <c r="I54" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
-      <c r="M54" s="9"/>
+      <c r="M54" s="8"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-    </row>
-    <row r="55" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="9"/>
+      <c r="I55" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>490</v>
+      </c>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T55" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J56" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="9"/>
+      <c r="I56" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>490</v>
+      </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T56" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="9"/>
+      <c r="I57" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>490</v>
+      </c>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T57" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="U57" s="3"/>
-    </row>
-    <row r="58" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="F58" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>430</v>
+      <c r="I58" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="M58" s="9" t="s">
         <v>414</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>399</v>
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="12" t="s">
-        <v>56</v>
+      <c r="I59" s="8"/>
+      <c r="J59" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
-      <c r="M59" s="9"/>
+      <c r="M59" s="8"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="12" t="s">
-        <v>56</v>
+      <c r="I60" s="8"/>
+      <c r="J60" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-      <c r="M60" s="9"/>
+      <c r="M60" s="8"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="12" t="s">
-        <v>56</v>
+      <c r="I61" s="8"/>
+      <c r="J61" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
-      <c r="M61" s="9"/>
+      <c r="M61" s="8"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="12" t="s">
-        <v>56</v>
+      <c r="I62" s="8"/>
+      <c r="J62" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
-      <c r="M62" s="9"/>
+      <c r="M62" s="8"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="12" t="s">
-        <v>56</v>
+      <c r="I63" s="8"/>
+      <c r="J63" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="M63" s="9"/>
+      <c r="M63" s="8"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="12" t="s">
-        <v>435</v>
+      <c r="I64" s="8"/>
+      <c r="J64" s="11" t="s">
+        <v>417</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>291</v>
+        <v>419</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="12" t="s">
-        <v>56</v>
+      <c r="I65" s="8"/>
+      <c r="J65" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-      <c r="M65" s="9"/>
+      <c r="M65" s="8"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-    </row>
-    <row r="66" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="J66" s="12" t="s">
-        <v>439</v>
+      <c r="I66" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>421</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="M66" s="9" t="s">
-        <v>414</v>
+        <v>423</v>
+      </c>
+      <c r="M66" s="8" t="s">
+        <v>399</v>
       </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-    </row>
-    <row r="67" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="H67" s="3"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>444</v>
+      <c r="I67" s="8"/>
+      <c r="J67" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>426</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>447</v>
+        <v>427</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>429</v>
       </c>
       <c r="O67" s="3"/>
       <c r="P67" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S67" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="1:21" ht="114.75" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="S67" s="11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-      <c r="I68" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="J68" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>444</v>
+      <c r="I68" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>426</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="M68" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>447</v>
+        <v>427</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>429</v>
       </c>
       <c r="O68" s="3"/>
       <c r="P68" s="3" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="S68" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-    </row>
-    <row r="69" spans="1:21" ht="89.25" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="S68" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="J69" s="12" t="s">
-        <v>450</v>
+      <c r="I69" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>432</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>453</v>
+        <v>434</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>435</v>
       </c>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-    </row>
-    <row r="70" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="J70" s="12" t="s">
-        <v>455</v>
+      <c r="I70" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>437</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="M70" s="9" t="s">
-        <v>291</v>
+        <v>439</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="O70" s="3"/>
       <c r="P70" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="S70" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-    </row>
-    <row r="71" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="S70" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="J71" s="12" t="s">
-        <v>56</v>
+      <c r="I71" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
-      <c r="M71" s="9"/>
+      <c r="M71" s="8"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
-    </row>
-    <row r="72" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="J72" s="12" t="s">
-        <v>56</v>
+      <c r="I72" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
-      <c r="M72" s="9"/>
+      <c r="M72" s="8"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-    </row>
-    <row r="73" spans="1:21" ht="140.25" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="F73" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="J73" s="12" t="s">
-        <v>460</v>
+      <c r="I73" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>442</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="M73" s="9" t="s">
-        <v>291</v>
+        <v>444</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="O73" s="3"/>
       <c r="P73" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="S73" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-    </row>
-    <row r="74" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="S73" s="11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="F74" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="J74" s="12" t="s">
-        <v>56</v>
+      <c r="I74" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
-      <c r="M74" s="9"/>
+      <c r="M74" s="8"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-    </row>
-    <row r="75" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>257</v>
-      </c>
       <c r="F75" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="J75" s="12" t="s">
-        <v>464</v>
+      <c r="I75" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>446</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="M75" s="9" t="s">
-        <v>291</v>
+        <v>448</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="O75" s="3"/>
       <c r="P75" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="S75" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="S75" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="F76" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H76" s="3"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="12" t="s">
-        <v>56</v>
+      <c r="I76" s="8"/>
+      <c r="J76" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
-      <c r="M76" s="9"/>
+      <c r="M76" s="8"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-    </row>
-    <row r="77" spans="1:21" ht="77.25" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="F77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I77" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="I77" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="J77" s="12" t="s">
-        <v>56</v>
+      <c r="J77" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
-      <c r="M77" s="9"/>
+      <c r="M77" s="8"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-    </row>
-    <row r="78" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="F78" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="J78" s="12" t="s">
-        <v>56</v>
+      <c r="I78" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-      <c r="M78" s="9"/>
+      <c r="M78" s="8"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-    </row>
-    <row r="79" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="J79" s="12" t="s">
-        <v>56</v>
+      <c r="I79" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
-      <c r="M79" s="9"/>
+      <c r="M79" s="8"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R79" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-    </row>
-    <row r="80" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="F80" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
-      <c r="I80" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J80" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>469</v>
+      <c r="I80" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>451</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="M80" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="N80" s="3" t="s">
-        <v>471</v>
+        <v>452</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>453</v>
       </c>
       <c r="O80" s="3"/>
       <c r="P80" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="S80" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-    </row>
-    <row r="81" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="S80" s="11" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="F81" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
-      <c r="I81" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J81" s="12" t="s">
-        <v>56</v>
+      <c r="I81" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
-      <c r="M81" s="9"/>
+      <c r="M81" s="8"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T81" s="3"/>
-      <c r="U81" s="3"/>
-    </row>
-    <row r="82" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>281</v>
-      </c>
       <c r="F82" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
-      <c r="I82" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J82" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>474</v>
+      <c r="I82" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>456</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="M82" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="N82" s="3" t="s">
-        <v>477</v>
+        <v>457</v>
+      </c>
+      <c r="M82" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>459</v>
       </c>
       <c r="O82" s="3"/>
       <c r="P82" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="S82" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="S82" s="11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="F83" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="12" t="s">
-        <v>56</v>
+      <c r="I83" s="8"/>
+      <c r="J83" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
-      <c r="M83" s="9"/>
+      <c r="M83" s="8"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R83" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T83" s="3"/>
-      <c r="U83" s="3"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="F84" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="H84" s="3"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="12" t="s">
-        <v>56</v>
+      <c r="I84" s="8"/>
+      <c r="J84" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
-      <c r="M84" s="9"/>
+      <c r="M84" s="8"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R84" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T84" s="3"/>
-      <c r="U84" s="3"/>
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U84" xr:uid="{E2AE202E-3036-4C4F-A2B8-1E3109A6638C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U84">
+  <autoFilter ref="A1:S84" xr:uid="{E2AE202E-3036-4C4F-A2B8-1E3109A6638C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S84">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>

--- a/data_processing_elements-ERC.xlsx
+++ b/data_processing_elements-ERC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atrottier\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40A6465-131A-499B-B562-6C600926FFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023BC444-5F30-4763-A324-7E4C8B3099E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="492">
   <si>
     <t>index</t>
   </si>
@@ -993,9 +993,6 @@
   </si>
   <si>
     <t>Particiant identification code.</t>
-  </si>
-  <si>
-    <t>w17fecha_ent</t>
   </si>
   <si>
     <t>Date of interview - baseilne</t>
@@ -1362,10 +1359,6 @@
 Diet information was collected using the HD-ENRICA dietary history (computerized administered by a trained interviewer). It collects standardized information on 861 foods that can be cooked in 29 different ways (including mixed forms of cooking and food preservation methods). Not all the participants gave their consent for the dietary history, so there is a higher number of missing data in these variables than in others.</t>
   </si>
   <si>
-    <t>w23gg08;
-w23gg09</t>
-  </si>
-  <si>
     <t>Vegetables;
 Legumes</t>
   </si>
@@ -1877,6 +1870,16 @@
   <si>
     <t>0=No 
 1=Yes</t>
+  </si>
+  <si>
+    <t>w17fecha_ent;
+w23date_ent</t>
+  </si>
+  <si>
+    <t>as.integer(w23gg11)</t>
+  </si>
+  <si>
+    <t>w23gg08</t>
   </si>
 </sst>
 </file>
@@ -2334,10 +2337,10 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomRight" activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,13 +2497,13 @@
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>31</v>
@@ -2517,7 +2520,7 @@
         <v>204</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -2545,13 +2548,13 @@
         <v>37</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>38</v>
@@ -2568,7 +2571,7 @@
         <v>39</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -2596,13 +2599,13 @@
       <c r="H5" s="3"/>
       <c r="I5" s="8"/>
       <c r="J5" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>31</v>
@@ -2649,16 +2652,16 @@
         <v>48</v>
       </c>
       <c r="J6" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>307</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -2672,7 +2675,7 @@
         <v>39</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="127.5" x14ac:dyDescent="0.25">
@@ -2745,16 +2748,16 @@
         <v>58</v>
       </c>
       <c r="J8" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -2768,7 +2771,7 @@
         <v>39</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -2882,16 +2885,16 @@
       <c r="H11" s="3"/>
       <c r="I11" s="8"/>
       <c r="J11" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>316</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -2905,7 +2908,7 @@
         <v>204</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
@@ -2933,20 +2936,20 @@
         <v>75</v>
       </c>
       <c r="J12" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>23</v>
@@ -2958,7 +2961,7 @@
         <v>39</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
@@ -2986,16 +2989,16 @@
         <v>79</v>
       </c>
       <c r="J13" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="8" t="s">
         <v>322</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>323</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -3009,7 +3012,7 @@
         <v>39</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
@@ -3037,16 +3040,16 @@
         <v>83</v>
       </c>
       <c r="J14" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="8" t="s">
         <v>322</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>323</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -3133,13 +3136,13 @@
       <c r="H16" s="3"/>
       <c r="I16" s="8"/>
       <c r="J16" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="K16" s="11" t="s">
-        <v>326</v>
-      </c>
       <c r="L16" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>287</v>
@@ -3158,7 +3161,7 @@
         <v>204</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="114" x14ac:dyDescent="0.25">
@@ -3186,13 +3189,13 @@
         <v>92</v>
       </c>
       <c r="J17" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="L17" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>287</v>
@@ -3211,7 +3214,7 @@
         <v>204</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
@@ -3239,13 +3242,13 @@
       <c r="H18" s="3"/>
       <c r="I18" s="8"/>
       <c r="J18" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="L18" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>287</v>
@@ -3258,13 +3261,13 @@
         <v>23</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="114" x14ac:dyDescent="0.25">
@@ -3292,13 +3295,13 @@
         <v>92</v>
       </c>
       <c r="J19" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="L19" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>287</v>
@@ -3317,7 +3320,7 @@
         <v>204</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -3345,13 +3348,13 @@
       <c r="H20" s="3"/>
       <c r="I20" s="8"/>
       <c r="J20" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>287</v>
@@ -3398,13 +3401,13 @@
       <c r="H21" s="3"/>
       <c r="I21" s="8"/>
       <c r="J21" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>102</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>287</v>
@@ -3451,13 +3454,13 @@
         <v>92</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>102</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>287</v>
@@ -3476,7 +3479,7 @@
         <v>32</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
@@ -3504,19 +3507,19 @@
       <c r="H23" s="3"/>
       <c r="I23" s="8"/>
       <c r="J23" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="K23" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="L23" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="N23" s="11" t="s">
         <v>344</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>345</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
@@ -3529,7 +3532,7 @@
         <v>32</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
@@ -3555,19 +3558,19 @@
       <c r="H24" s="3"/>
       <c r="I24" s="8"/>
       <c r="J24" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="K24" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="L24" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="N24" s="11" t="s">
         <v>344</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>345</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="2" t="s">
@@ -3580,7 +3583,7 @@
         <v>32</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -3608,13 +3611,13 @@
       <c r="H25" s="3"/>
       <c r="I25" s="8"/>
       <c r="J25" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>287</v>
@@ -3661,13 +3664,13 @@
       <c r="H26" s="3"/>
       <c r="I26" s="8"/>
       <c r="J26" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>352</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>287</v>
@@ -3714,13 +3717,13 @@
       <c r="H27" s="3"/>
       <c r="I27" s="8"/>
       <c r="J27" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>287</v>
@@ -3857,19 +3860,19 @@
       <c r="H30" s="3"/>
       <c r="I30" s="8"/>
       <c r="J30" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3" t="s">
@@ -3882,7 +3885,7 @@
         <v>32</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -3910,13 +3913,13 @@
       <c r="H31" s="3"/>
       <c r="I31" s="8"/>
       <c r="J31" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>362</v>
-      </c>
       <c r="L31" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>287</v>
@@ -3963,19 +3966,19 @@
       <c r="H32" s="3"/>
       <c r="I32" s="8"/>
       <c r="J32" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>134</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3" t="s">
@@ -3988,7 +3991,7 @@
         <v>32</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -4016,19 +4019,19 @@
       <c r="H33" s="3"/>
       <c r="I33" s="8"/>
       <c r="J33" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3" t="s">
@@ -4041,7 +4044,7 @@
         <v>32</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -4069,19 +4072,19 @@
       <c r="H34" s="3"/>
       <c r="I34" s="8"/>
       <c r="J34" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3" t="s">
@@ -4094,7 +4097,7 @@
         <v>32</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
@@ -4122,19 +4125,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="8"/>
       <c r="J35" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="K35" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="L35" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="M35" s="8" t="s">
+      <c r="N35" s="11" t="s">
         <v>373</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>374</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>288</v>
@@ -4149,7 +4152,7 @@
         <v>32</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -4177,19 +4180,19 @@
       <c r="H36" s="3"/>
       <c r="I36" s="8"/>
       <c r="J36" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>143</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3" t="s">
@@ -4202,7 +4205,7 @@
         <v>32</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -4230,13 +4233,13 @@
       <c r="H37" s="3"/>
       <c r="I37" s="8"/>
       <c r="J37" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>145</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>287</v>
@@ -4283,13 +4286,13 @@
       <c r="H38" s="3"/>
       <c r="I38" s="8"/>
       <c r="J38" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>287</v>
@@ -4305,10 +4308,10 @@
         <v>24</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>44</v>
+        <v>490</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
@@ -4381,19 +4384,19 @@
       <c r="H40" s="3"/>
       <c r="I40" s="8"/>
       <c r="J40" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="M40" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="N40" s="11" t="s">
         <v>382</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>384</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>23</v>
@@ -4478,13 +4481,13 @@
       <c r="H42" s="3"/>
       <c r="I42" s="8"/>
       <c r="J42" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>287</v>
@@ -4531,13 +4534,13 @@
       <c r="H43" s="3"/>
       <c r="I43" s="8"/>
       <c r="J43" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="3" t="s">
@@ -4554,7 +4557,7 @@
         <v>32</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="153" x14ac:dyDescent="0.25">
@@ -4582,20 +4585,20 @@
         <v>172</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>23</v>
@@ -4607,7 +4610,7 @@
         <v>39</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
@@ -4635,16 +4638,16 @@
         <v>176</v>
       </c>
       <c r="J45" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="M45" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>391</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -4658,7 +4661,7 @@
         <v>39</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
@@ -4686,16 +4689,16 @@
         <v>179</v>
       </c>
       <c r="J46" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="L46" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="M46" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>391</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -4737,17 +4740,17 @@
       <c r="H47" s="3"/>
       <c r="I47" s="8"/>
       <c r="J47" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M47" s="8"/>
       <c r="N47" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3" t="s">
@@ -4760,7 +4763,7 @@
         <v>32</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
@@ -4788,16 +4791,16 @@
         <v>185</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>184</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -4839,19 +4842,19 @@
         <v>189</v>
       </c>
       <c r="J49" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="M49" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="O49" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>400</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>23</v>
@@ -4863,7 +4866,7 @@
         <v>204</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
@@ -4891,20 +4894,20 @@
         <v>189</v>
       </c>
       <c r="J50" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="K50" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>404</v>
-      </c>
       <c r="M50" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="P50" s="3" t="s">
         <v>23</v>
@@ -4916,7 +4919,7 @@
         <v>204</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -5034,20 +5037,20 @@
         <v>189</v>
       </c>
       <c r="J53" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="L53" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>409</v>
-      </c>
       <c r="M53" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P53" s="3" t="s">
         <v>23</v>
@@ -5059,7 +5062,7 @@
         <v>39</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -5132,16 +5135,16 @@
         <v>189</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -5183,16 +5186,16 @@
         <v>189</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -5234,16 +5237,16 @@
         <v>189</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -5285,20 +5288,20 @@
         <v>189</v>
       </c>
       <c r="J58" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>414</v>
-      </c>
       <c r="M58" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>23</v>
@@ -5310,7 +5313,7 @@
         <v>39</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -5551,19 +5554,19 @@
       <c r="H64" s="3"/>
       <c r="I64" s="8"/>
       <c r="J64" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="L64" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>419</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3" t="s">
@@ -5647,16 +5650,16 @@
         <v>228</v>
       </c>
       <c r="J66" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="L66" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>423</v>
-      </c>
       <c r="M66" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -5670,7 +5673,7 @@
         <v>39</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="142.5" x14ac:dyDescent="0.25">
@@ -5698,19 +5701,19 @@
       <c r="H67" s="3"/>
       <c r="I67" s="8"/>
       <c r="J67" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="L67" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="K67" s="11" t="s">
+      <c r="M67" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="L67" s="3" t="s">
+      <c r="N67" s="11" t="s">
         <v>427</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="N67" s="11" t="s">
-        <v>429</v>
       </c>
       <c r="O67" s="3"/>
       <c r="P67" s="3" t="s">
@@ -5723,7 +5726,7 @@
         <v>32</v>
       </c>
       <c r="S67" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
@@ -5751,19 +5754,19 @@
         <v>234</v>
       </c>
       <c r="J68" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="L68" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="K68" s="11" t="s">
+      <c r="M68" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="L68" s="3" t="s">
+      <c r="N68" s="11" t="s">
         <v>427</v>
-      </c>
-      <c r="M68" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="N68" s="11" t="s">
-        <v>429</v>
       </c>
       <c r="O68" s="3"/>
       <c r="P68" s="3" t="s">
@@ -5776,7 +5779,7 @@
         <v>204</v>
       </c>
       <c r="S68" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
@@ -5804,16 +5807,16 @@
         <v>237</v>
       </c>
       <c r="J69" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="L69" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="M69" s="8" t="s">
         <v>433</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="M69" s="8" t="s">
-        <v>435</v>
       </c>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
@@ -5827,7 +5830,7 @@
         <v>39</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="156.75" x14ac:dyDescent="0.25">
@@ -5855,19 +5858,19 @@
         <v>240</v>
       </c>
       <c r="J70" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="L70" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="M70" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="O70" s="3"/>
       <c r="P70" s="3" t="s">
@@ -5880,7 +5883,7 @@
         <v>204</v>
       </c>
       <c r="S70" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="51" x14ac:dyDescent="0.25">
@@ -5998,19 +6001,19 @@
         <v>248</v>
       </c>
       <c r="J73" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="L73" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>444</v>
       </c>
       <c r="M73" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="O73" s="3"/>
       <c r="P73" s="3" t="s">
@@ -6023,7 +6026,7 @@
         <v>204</v>
       </c>
       <c r="S73" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
@@ -6096,19 +6099,19 @@
         <v>256</v>
       </c>
       <c r="J75" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="L75" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>448</v>
       </c>
       <c r="M75" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="O75" s="3"/>
       <c r="P75" s="3" t="s">
@@ -6121,7 +6124,7 @@
         <v>204</v>
       </c>
       <c r="S75" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -6330,19 +6333,19 @@
         <v>189</v>
       </c>
       <c r="J80" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="L80" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="K80" s="11" t="s">
+      <c r="M80" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="N80" s="11" t="s">
         <v>451</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="M80" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="N80" s="11" t="s">
-        <v>453</v>
       </c>
       <c r="O80" s="3"/>
       <c r="P80" s="3" t="s">
@@ -6355,7 +6358,7 @@
         <v>204</v>
       </c>
       <c r="S80" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -6428,19 +6431,19 @@
         <v>189</v>
       </c>
       <c r="J82" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="L82" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="K82" s="11" t="s">
+      <c r="M82" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="L82" s="3" t="s">
+      <c r="N82" s="11" t="s">
         <v>457</v>
-      </c>
-      <c r="M82" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="N82" s="11" t="s">
-        <v>459</v>
       </c>
       <c r="O82" s="3"/>
       <c r="P82" s="3" t="s">
@@ -6453,7 +6456,7 @@
         <v>204</v>
       </c>
       <c r="S82" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">

--- a/data_processing_elements-ERC.xlsx
+++ b/data_processing_elements-ERC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023BC444-5F30-4763-A324-7E4C8B3099E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D1D5B0-14CF-4372-9D54-5EDDB06CE5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1859,9 +1859,6 @@
     <t>Wording is: During the past 12 months, how often have you had alcoholic beverages?</t>
   </si>
   <si>
-    <t>recode(1=3; 2=3; 3=2; 4=2; 6=1; 7=0; 8=0; 9=0; 10=NA; ELSE=NA)</t>
-  </si>
-  <si>
     <t>cig/day</t>
   </si>
   <si>
@@ -1880,6 +1877,9 @@
   </si>
   <si>
     <t>w23gg08</t>
+  </si>
+  <si>
+    <t>recode(1=3; 2=3; 3=2; 4=2;5=1; 6=1; 7=0; 8=0; 9=0; 10=NA; ELSE=NA)</t>
   </si>
 </sst>
 </file>
@@ -2337,10 +2337,10 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T18" sqref="T18"/>
+      <selection pane="bottomRight" activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>295</v>
@@ -4311,7 +4311,7 @@
         <v>32</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
@@ -4384,7 +4384,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="8"/>
       <c r="J40" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K40" s="11" t="s">
         <v>380</v>
@@ -4610,7 +4610,7 @@
         <v>39</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="M47" s="8"/>
       <c r="N47" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3" t="s">
@@ -4763,7 +4763,7 @@
         <v>32</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
@@ -5144,7 +5144,7 @@
         <v>475</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -5195,7 +5195,7 @@
         <v>476</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -5246,7 +5246,7 @@
         <v>477</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>

--- a/data_processing_elements-ERC.xlsx
+++ b/data_processing_elements-ERC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D1D5B0-14CF-4372-9D54-5EDDB06CE5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022C4F3F-0EE1-4F9A-AA14-080873863778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="491">
   <si>
     <t>index</t>
   </si>
@@ -1871,9 +1871,6 @@
   <si>
     <t>w17fecha_ent;
 w23date_ent</t>
-  </si>
-  <si>
-    <t>as.integer(w23gg11)</t>
   </si>
   <si>
     <t>w23gg08</t>
@@ -2337,10 +2334,10 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M44" sqref="M44"/>
+      <selection pane="bottomRight" activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4278,7 +4275,7 @@
         <v>150</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>151</v>
@@ -4308,10 +4305,10 @@
         <v>24</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>489</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
@@ -4384,7 +4381,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="8"/>
       <c r="J40" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K40" s="11" t="s">
         <v>380</v>
@@ -4610,7 +4607,7 @@
         <v>39</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">

--- a/data_processing_elements-ERC.xlsx
+++ b/data_processing_elements-ERC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022C4F3F-0EE1-4F9A-AA14-080873863778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230F5C64-4B0E-4709-BBA3-587EB971AE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -2334,10 +2334,10 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q39" sqref="Q39"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4373,7 +4373,7 @@
         <v>159</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>151</v>

--- a/data_processing_elements-ERC.xlsx
+++ b/data_processing_elements-ERC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230F5C64-4B0E-4709-BBA3-587EB971AE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D8A4A2-FDAB-42FA-8F96-81E4264D5038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -1826,12 +1826,6 @@
     <t>During the nurse's visit to the participants' home, they are asked to show all the boxes of medications they regularly consume and the prescriptions, and the nurse writes down all the medications (up to 10 medications). Each recorded medication has been assigned the corresponding ATC code, and this variable has been coded as yes/no based on the list of ATC codes related to antidiabetic medications proposed by PROPASS (see sheet "ATCs_med" in this document).</t>
   </si>
   <si>
-    <t>case_when(
-!is.na(w23date_ent) ~ format(as.Date(w23date_ent, format = "%d/%m/%Y"), "%Y-%m-%d");
-!is.na(w17fecha_ent) ~ format(as.Date(w17fecha_ent, format = "%d/%m/%Y"), "%Y-%m-%d");
-ELSE ~ as.Date(NA))</t>
-  </si>
-  <si>
     <t>recode(1=0; 2=0; 3=0; 4=0; 5=1; 6=3; 7=3; ELSE = NA)</t>
   </si>
   <si>
@@ -1869,14 +1863,20 @@
 1=Yes</t>
   </si>
   <si>
+    <t>w23gg08</t>
+  </si>
+  <si>
+    <t>recode(1=3; 2=3; 3=2; 4=2;5=1; 6=1; 7=0; 8=0; 9=0; 10=NA; ELSE=NA)</t>
+  </si>
+  <si>
     <t>w17fecha_ent;
-w23date_ent</t>
-  </si>
-  <si>
-    <t>w23gg08</t>
-  </si>
-  <si>
-    <t>recode(1=3; 2=3; 3=2; 4=2;5=1; 6=1; 7=0; 8=0; 9=0; 10=NA; ELSE=NA)</t>
+w23fecha_ent</t>
+  </si>
+  <si>
+    <t>case_when(
+!is.na(w23fecha_ent) ~ format(as.Date(w23fecha_ent, format = "%d/%m/%Y"), "%Y-%m-%d");
+!is.na(w17fecha_ent) ~ format(as.Date(w17fecha_ent, format = "%d/%m/%Y"), "%Y-%m-%d");
+ELSE ~ as.Date(NA))</t>
   </si>
 </sst>
 </file>
@@ -2334,10 +2334,10 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="11" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>295</v>
@@ -2517,7 +2517,7 @@
         <v>204</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>39</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="127.5" x14ac:dyDescent="0.25">
@@ -3580,7 +3580,7 @@
         <v>32</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -4149,7 +4149,7 @@
         <v>32</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -4381,7 +4381,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="8"/>
       <c r="J40" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="K40" s="11" t="s">
         <v>380</v>
@@ -4554,7 +4554,7 @@
         <v>32</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="153" x14ac:dyDescent="0.25">
@@ -4591,11 +4591,11 @@
         <v>473</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>23</v>
@@ -4607,7 +4607,7 @@
         <v>39</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="M47" s="8"/>
       <c r="N47" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3" t="s">
@@ -4760,7 +4760,7 @@
         <v>32</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
@@ -5141,7 +5141,7 @@
         <v>475</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -5192,7 +5192,7 @@
         <v>476</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -5243,7 +5243,7 @@
         <v>477</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>

--- a/data_processing_elements-ERC.xlsx
+++ b/data_processing_elements-ERC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D8A4A2-FDAB-42FA-8F96-81E4264D5038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B44CD0E-B6D0-4855-8121-01D6ACD63D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -1874,9 +1874,9 @@
   </si>
   <si>
     <t>case_when(
-!is.na(w23fecha_ent) ~ format(as.Date(w23fecha_ent, format = "%d/%m/%Y"), "%Y-%m-%d");
-!is.na(w17fecha_ent) ~ format(as.Date(w17fecha_ent, format = "%d/%m/%Y"), "%Y-%m-%d");
-ELSE ~ as.Date(NA))</t>
+!is.na(w23fecha_ent) ~ as.character(format(as.Date(w23fecha_ent, format = "%d/%m/%Y"), "%Y-%m-%d"));
+!is.na(w17fecha_ent) ~ as.character(format(as.Date(w17fecha_ent, format = "%d/%m/%Y"), "%Y-%m-%d"));
+ELSE ~ NA)</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2337,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2469,7 +2469,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="228" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>

--- a/data_processing_elements-ERC.xlsx
+++ b/data_processing_elements-ERC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/849507f40a0f895e/Documents/ProPASS/Studies/ENRICA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B44CD0E-B6D0-4855-8121-01D6ACD63D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{9B44CD0E-B6D0-4855-8121-01D6ACD63D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFF4509C-8CF8-4E4C-843E-0F813E0583E8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="489">
   <si>
     <t>index</t>
   </si>
@@ -1068,9 +1068,6 @@
   </si>
   <si>
     <t>recode(1=1; 2=0; 3=NA; 4=0; ELSE = NA)</t>
-  </si>
-  <si>
-    <t>w23p101</t>
   </si>
   <si>
     <t>Employment status VI</t>
@@ -1285,9 +1282,6 @@
     <t>10^6/μL</t>
   </si>
   <si>
-    <t>w23hematies/(10^5)</t>
-  </si>
-  <si>
     <t>w23hba1cifcc</t>
   </si>
   <si>
@@ -1654,21 +1648,6 @@
 Questionnaire item (English): In a typical week during the past year, how many hours did you spend per week on each of the following activities ____hours per week</t>
   </si>
   <si>
-    <t>case_when(
-(w23p34_2/7) &gt;= 0 &amp; (w23p34_2/7) &lt; 1 ~ 1L;
-(w23p34_2/7) &gt;= 1 &amp; (w23p34_2/7) &lt; 2 ~ 2L;
-(w23p34_2/7) &gt;= 2 &amp; (w23p34_2/7) &lt; 3 ~ 3L;
-(w23p34_2/7) &gt;= 3 &amp; (w23p34_2/7) &lt; 4 ~ 4L;
-(w23p34_2/7) &gt;= 4 &amp; (w23p34_2/7) &lt; 5 ~ 5L;
-(w23p34_2/7) &gt;= 5 &amp; (w23p34_2/7) &lt; 6 ~ 6L;
-(w23p34_2/7) &gt;= 6 &amp; (w23p34_2/7) &lt; 7 ~ 7L;
-(w23p34_2/7) &gt;= 7 &amp; (w23p34_2/7) &lt; 8 ~ 8L;
-(w23p34_2/7) &gt;= 8 &amp; (w23p34_2/7) &lt; 9 ~ 9L;
-(w23p34_2/7) &gt;= 9 &amp; (w23p34_2/7) &lt; 10 ~ 10L;
-(w23p34_2/7) &gt;= 10 ~ 11L;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
     <t>w23p34_4</t>
   </si>
   <si>
@@ -1760,12 +1739,6 @@
 h/week</t>
   </si>
   <si>
-    <t>case_when(
-w23p34_18 &gt; 0 | w23p34_14 &gt; 0 | w23p34_15 &gt; 0 | w23p34_16 &gt; 0 | w23p34_17 &gt; 0 | w23p34_19 &gt; 0 ~ 1L;
-w23p34_18 == 0 &amp; w23p34_14 == 0 &amp; w23p34_15 == 0 &amp; w23p34_16 == 0 &amp; w23p34_17 == 0 &amp; w23p34_19 == 0 ~ 2L;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
     <t>w23olbebidas</t>
   </si>
   <si>
@@ -1877,6 +1850,15 @@
 !is.na(w23fecha_ent) ~ as.character(format(as.Date(w23fecha_ent, format = "%d/%m/%Y"), "%Y-%m-%d"));
 !is.na(w17fecha_ent) ~ as.character(format(as.Date(w17fecha_ent, format = "%d/%m/%Y"), "%Y-%m-%d"));
 ELSE ~ NA)</t>
+  </si>
+  <si>
+    <t>w17p209b</t>
+  </si>
+  <si>
+    <t>case_when(
+w23p34_18 &gt; 0 | w23p34_14 &gt; 0 | w23p34_15 &gt; 0 | w23p34_16 &gt; 0 | w23p34_17 &gt; 0 | w23p34_19 &gt; 0 ~ 1L;
+w23p34_18 == 0 &amp; w23p34_14 == 0 &amp; w23p34_15 == 0 &amp; w23p34_16 == 0 &amp; w23p34_17 == 0 &amp; w23p34_19 == 0 ~ 0L;
+ELSE ~ NA_integer_)</t>
   </si>
 </sst>
 </file>
@@ -1918,7 +1900,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1943,6 +1925,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1956,7 +1944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1991,6 +1979,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2334,10 +2328,10 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,7 +2488,7 @@
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="11" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>295</v>
@@ -2517,7 +2511,7 @@
         <v>204</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -2672,7 +2666,7 @@
         <v>39</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="127.5" x14ac:dyDescent="0.25">
@@ -2881,17 +2875,17 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="8" t="s">
         <v>314</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>315</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -2905,7 +2899,7 @@
         <v>204</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
@@ -2946,7 +2940,7 @@
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>23</v>
@@ -2958,7 +2952,7 @@
         <v>39</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
@@ -2986,16 +2980,16 @@
         <v>79</v>
       </c>
       <c r="J13" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -3009,7 +3003,7 @@
         <v>39</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
@@ -3037,16 +3031,16 @@
         <v>83</v>
       </c>
       <c r="J14" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -3133,13 +3127,13 @@
       <c r="H16" s="3"/>
       <c r="I16" s="8"/>
       <c r="J16" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="K16" s="11" t="s">
-        <v>325</v>
-      </c>
       <c r="L16" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>287</v>
@@ -3158,7 +3152,7 @@
         <v>204</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="114" x14ac:dyDescent="0.25">
@@ -3186,13 +3180,13 @@
         <v>92</v>
       </c>
       <c r="J17" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="L17" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>287</v>
@@ -3211,7 +3205,7 @@
         <v>204</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
@@ -3239,13 +3233,13 @@
       <c r="H18" s="3"/>
       <c r="I18" s="8"/>
       <c r="J18" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="L18" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>287</v>
@@ -3264,7 +3258,7 @@
         <v>204</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="114" x14ac:dyDescent="0.25">
@@ -3292,13 +3286,13 @@
         <v>92</v>
       </c>
       <c r="J19" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="L19" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>287</v>
@@ -3317,7 +3311,7 @@
         <v>204</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -3345,13 +3339,13 @@
       <c r="H20" s="3"/>
       <c r="I20" s="8"/>
       <c r="J20" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>287</v>
@@ -3398,13 +3392,13 @@
       <c r="H21" s="3"/>
       <c r="I21" s="8"/>
       <c r="J21" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>102</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>287</v>
@@ -3451,13 +3445,13 @@
         <v>92</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>102</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>287</v>
@@ -3476,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
@@ -3504,19 +3498,19 @@
       <c r="H23" s="3"/>
       <c r="I23" s="8"/>
       <c r="J23" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="K23" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="L23" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="N23" s="11" t="s">
         <v>343</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>344</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
@@ -3529,7 +3523,7 @@
         <v>32</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
@@ -3555,19 +3549,19 @@
       <c r="H24" s="3"/>
       <c r="I24" s="8"/>
       <c r="J24" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="K24" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="L24" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="N24" s="11" t="s">
         <v>343</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>344</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="2" t="s">
@@ -3580,7 +3574,7 @@
         <v>32</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -3608,13 +3602,13 @@
       <c r="H25" s="3"/>
       <c r="I25" s="8"/>
       <c r="J25" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>287</v>
@@ -3661,13 +3655,13 @@
       <c r="H26" s="3"/>
       <c r="I26" s="8"/>
       <c r="J26" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>287</v>
@@ -3714,13 +3708,13 @@
       <c r="H27" s="3"/>
       <c r="I27" s="8"/>
       <c r="J27" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>287</v>
@@ -3857,32 +3851,32 @@
       <c r="H30" s="3"/>
       <c r="I30" s="8"/>
       <c r="J30" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>359</v>
+      <c r="Q30" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -3910,13 +3904,13 @@
       <c r="H31" s="3"/>
       <c r="I31" s="8"/>
       <c r="J31" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>287</v>
@@ -3963,19 +3957,19 @@
       <c r="H32" s="3"/>
       <c r="I32" s="8"/>
       <c r="J32" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>134</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3" t="s">
@@ -3988,7 +3982,7 @@
         <v>32</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -4016,19 +4010,19 @@
       <c r="H33" s="3"/>
       <c r="I33" s="8"/>
       <c r="J33" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3" t="s">
@@ -4041,7 +4035,7 @@
         <v>32</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -4069,19 +4063,19 @@
       <c r="H34" s="3"/>
       <c r="I34" s="8"/>
       <c r="J34" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3" t="s">
@@ -4094,7 +4088,7 @@
         <v>32</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
@@ -4122,19 +4116,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="8"/>
       <c r="J35" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="L35" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="M35" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="N35" s="11" t="s">
         <v>371</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>373</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>288</v>
@@ -4149,7 +4143,7 @@
         <v>32</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -4177,19 +4171,19 @@
       <c r="H36" s="3"/>
       <c r="I36" s="8"/>
       <c r="J36" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>143</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3" t="s">
@@ -4202,7 +4196,7 @@
         <v>32</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -4230,13 +4224,13 @@
       <c r="H37" s="3"/>
       <c r="I37" s="8"/>
       <c r="J37" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>145</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>287</v>
@@ -4283,13 +4277,13 @@
       <c r="H38" s="3"/>
       <c r="I38" s="8"/>
       <c r="J38" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>379</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>287</v>
@@ -4381,19 +4375,19 @@
       <c r="H40" s="3"/>
       <c r="I40" s="8"/>
       <c r="J40" s="11" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K40" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="N40" s="11" t="s">
         <v>380</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>382</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>23</v>
@@ -4478,13 +4472,13 @@
       <c r="H42" s="3"/>
       <c r="I42" s="8"/>
       <c r="J42" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>287</v>
@@ -4531,13 +4525,13 @@
       <c r="H43" s="3"/>
       <c r="I43" s="8"/>
       <c r="J43" s="11" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="3" t="s">
@@ -4554,7 +4548,7 @@
         <v>32</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="153" x14ac:dyDescent="0.25">
@@ -4582,20 +4576,20 @@
         <v>172</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>23</v>
@@ -4607,7 +4601,7 @@
         <v>39</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
@@ -4635,16 +4629,16 @@
         <v>176</v>
       </c>
       <c r="J45" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="M45" s="8" t="s">
         <v>387</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>389</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -4658,7 +4652,7 @@
         <v>39</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
@@ -4686,16 +4680,16 @@
         <v>179</v>
       </c>
       <c r="J46" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="L46" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="M46" s="8" t="s">
         <v>387</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>389</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -4737,17 +4731,17 @@
       <c r="H47" s="3"/>
       <c r="I47" s="8"/>
       <c r="J47" s="11" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M47" s="8"/>
       <c r="N47" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3" t="s">
@@ -4760,7 +4754,7 @@
         <v>32</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
@@ -4788,16 +4782,16 @@
         <v>185</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>184</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -4839,19 +4833,19 @@
         <v>189</v>
       </c>
       <c r="J49" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="M49" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="O49" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>23</v>
@@ -4863,7 +4857,7 @@
         <v>204</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
@@ -4891,20 +4885,20 @@
         <v>189</v>
       </c>
       <c r="J50" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="K50" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>402</v>
-      </c>
       <c r="M50" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="P50" s="3" t="s">
         <v>23</v>
@@ -4916,7 +4910,7 @@
         <v>204</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -5034,20 +5028,20 @@
         <v>189</v>
       </c>
       <c r="J53" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="L53" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>407</v>
-      </c>
       <c r="M53" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P53" s="3" t="s">
         <v>23</v>
@@ -5059,7 +5053,7 @@
         <v>39</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -5132,16 +5126,16 @@
         <v>189</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -5183,16 +5177,16 @@
         <v>189</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -5234,16 +5228,16 @@
         <v>189</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -5285,20 +5279,20 @@
         <v>189</v>
       </c>
       <c r="J58" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>412</v>
-      </c>
       <c r="M58" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>23</v>
@@ -5310,7 +5304,7 @@
         <v>39</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -5551,19 +5545,19 @@
       <c r="H64" s="3"/>
       <c r="I64" s="8"/>
       <c r="J64" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="L64" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3" t="s">
@@ -5647,16 +5641,16 @@
         <v>228</v>
       </c>
       <c r="J66" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="L66" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>421</v>
-      </c>
       <c r="M66" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -5670,7 +5664,7 @@
         <v>39</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="142.5" x14ac:dyDescent="0.25">
@@ -5698,19 +5692,19 @@
       <c r="H67" s="3"/>
       <c r="I67" s="8"/>
       <c r="J67" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="L67" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="K67" s="11" t="s">
+      <c r="M67" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="L67" s="3" t="s">
+      <c r="N67" s="11" t="s">
         <v>425</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="N67" s="11" t="s">
-        <v>427</v>
       </c>
       <c r="O67" s="3"/>
       <c r="P67" s="3" t="s">
@@ -5723,7 +5717,7 @@
         <v>32</v>
       </c>
       <c r="S67" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
@@ -5751,19 +5745,19 @@
         <v>234</v>
       </c>
       <c r="J68" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="L68" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="K68" s="11" t="s">
+      <c r="M68" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="L68" s="3" t="s">
+      <c r="N68" s="11" t="s">
         <v>425</v>
-      </c>
-      <c r="M68" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="N68" s="11" t="s">
-        <v>427</v>
       </c>
       <c r="O68" s="3"/>
       <c r="P68" s="3" t="s">
@@ -5776,7 +5770,7 @@
         <v>204</v>
       </c>
       <c r="S68" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
@@ -5804,16 +5798,16 @@
         <v>237</v>
       </c>
       <c r="J69" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="L69" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="M69" s="8" t="s">
         <v>431</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="M69" s="8" t="s">
-        <v>433</v>
       </c>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
@@ -5827,7 +5821,7 @@
         <v>39</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="156.75" x14ac:dyDescent="0.25">
@@ -5855,19 +5849,19 @@
         <v>240</v>
       </c>
       <c r="J70" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="L70" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>437</v>
       </c>
       <c r="M70" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="O70" s="3"/>
       <c r="P70" s="3" t="s">
@@ -5880,7 +5874,7 @@
         <v>204</v>
       </c>
       <c r="S70" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="51" x14ac:dyDescent="0.25">
@@ -5973,7 +5967,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -5998,32 +5992,32 @@
         <v>248</v>
       </c>
       <c r="J73" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="L73" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>442</v>
       </c>
       <c r="M73" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="O73" s="3"/>
       <c r="P73" s="3" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="S73" s="11" t="s">
-        <v>443</v>
+        <v>59</v>
+      </c>
+      <c r="S73" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
@@ -6096,19 +6090,19 @@
         <v>256</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M75" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="O75" s="3"/>
       <c r="P75" s="3" t="s">
@@ -6121,7 +6115,7 @@
         <v>204</v>
       </c>
       <c r="S75" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -6330,19 +6324,19 @@
         <v>189</v>
       </c>
       <c r="J80" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="N80" s="11" t="s">
         <v>448</v>
-      </c>
-      <c r="K80" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="M80" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="N80" s="11" t="s">
-        <v>451</v>
       </c>
       <c r="O80" s="3"/>
       <c r="P80" s="3" t="s">
@@ -6355,7 +6349,7 @@
         <v>204</v>
       </c>
       <c r="S80" s="11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -6428,19 +6422,19 @@
         <v>189</v>
       </c>
       <c r="J82" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="M82" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="K82" s="11" t="s">
+      <c r="N82" s="11" t="s">
         <v>454</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="M82" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="N82" s="11" t="s">
-        <v>457</v>
       </c>
       <c r="O82" s="3"/>
       <c r="P82" s="3" t="s">
@@ -6452,8 +6446,8 @@
       <c r="R82" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="S82" s="11" t="s">
-        <v>458</v>
+      <c r="S82" s="13" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">

--- a/data_processing_elements-ERC.xlsx
+++ b/data_processing_elements-ERC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/849507f40a0f895e/Documents/ProPASS/Studies/ENRICA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{9B44CD0E-B6D0-4855-8121-01D6ACD63D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFF4509C-8CF8-4E4C-843E-0F813E0583E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2791575E-959D-4F06-9FD2-C063B6B6CF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1098,29 +1098,6 @@
 99=DK/NA</t>
   </si>
   <si>
-    <t>case_when(
-w23p101 == 1 ~ "Entrepreneur or self-employed worker with 10 or more employees";
-w23p101 == 2 ~ "Entrepreneur or self-employed worker with less than 10 employees";
-w23p101 == 3 ~ "Higher-level self-employed (i.e., Medical doctor, lawyer, psychologist, etc.)";
-w23p101 == 4 ~ "Self-employed medium degree (i.e., nurse, physiotherapist, teacher, etc.)";
-w23p101 == 5 ~ "Self-employed farmer without employees";
-w23p101 == 6 ~ "Other self-employed work without employees";
-w23p101 == 7 ~ "Employed worker: Manager of a company with 10 or more employees";
-w23p101 == 8 ~ "Employed worker: Manager of a company with less than 10 employees";
-w23p101 == 9 ~ "Employed worker: Higher degree (i.e., Medical doctor, lawyer, psychologist, etc.)";
-w23p101 == 10 ~ "Employed worker: Medium degree (i.e., nurse, physical therapist, teacher, etc.)";
-w23p101 == 11 ~ "Employed worker: Supervisor, manager, head of administrative or commercial departments";
-w23p101 == 12 ~ "Employed worker: Other administrative or commercial personnel";
-w23p101 == 13 ~ "Employed worker: Other service personnel";
-w23p101 == 14 ~ "Employed worker: Operators or skilled manual laborers";
-w23p101 == 15 ~ "Employed worker: Semi-skilled and unskilled manual workers or operators";
-w23p101 == 16 ~ "Employed worker: Farmworkers";
-w23p101 == 17 ~ "Employed worker: Armed Forces";
-w23p101 == 18 ~ "Housewife";
-w23p101 == 19 ~ "Others";
-ELSE ~ NA_character_)</t>
-  </si>
-  <si>
     <t>Wording of the category includes "Retired/pensioner".</t>
   </si>
   <si>
@@ -1859,6 +1836,29 @@
 w23p34_18 &gt; 0 | w23p34_14 &gt; 0 | w23p34_15 &gt; 0 | w23p34_16 &gt; 0 | w23p34_17 &gt; 0 | w23p34_19 &gt; 0 ~ 1L;
 w23p34_18 == 0 &amp; w23p34_14 == 0 &amp; w23p34_15 == 0 &amp; w23p34_16 == 0 &amp; w23p34_17 == 0 &amp; w23p34_19 == 0 ~ 0L;
 ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>case_when(
+w17p209b == 1 ~ "Entrepreneur or self-employed worker with 10 or more employees";
+w17p209b == 2 ~ "Entrepreneur or self-employed worker with less than 10 employees";
+w17p209b == 3 ~ "Higher-level self-employed (i.e., Medical doctor, lawyer, psychologist, etc.)";
+w17p209b == 4 ~ "Self-employed medium degree (i.e., nurse, physiotherapist, teacher, etc.)";
+w17p209b == 5 ~ "Self-employed farmer without employees";
+w17p209b == 6 ~ "Other self-employed work without employees";
+w17p209b == 7 ~ "Employed worker: Manager of a company with 10 or more employees";
+w17p209b == 8 ~ "Employed worker: Manager of a company with less than 10 employees";
+w17p209b == 9 ~ "Employed worker: Higher degree (i.e., Medical doctor, lawyer, psychologist, etc.)";
+w17p209b == 10 ~ "Employed worker: Medium degree (i.e., nurse, physical therapist, teacher, etc.)";
+w17p209b == 11 ~ "Employed worker: Supervisor, manager, head of administrative or commercial departments";
+w17p209b == 12 ~ "Employed worker: Other administrative or commercial personnel";
+w17p209b == 13 ~ "Employed worker: Other service personnel";
+w17p209b == 14 ~ "Employed worker: Operators or skilled manual laborers";
+w17p209b == 15 ~ "Employed worker: Semi-skilled and unskilled manual workers or operators";
+w17p209b == 16 ~ "Employed worker: Farmworkers";
+w17p209b == 17 ~ "Employed worker: Armed Forces";
+w17p209b == 18 ~ "Housewife";
+w17p209b == 19 ~ "Others";
+ELSE ~ NA_character_)</t>
   </si>
 </sst>
 </file>
@@ -2328,10 +2328,10 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>295</v>
@@ -2511,7 +2511,7 @@
         <v>204</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -2666,7 +2666,7 @@
         <v>39</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="127.5" x14ac:dyDescent="0.25">
@@ -2876,7 +2876,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="8"/>
       <c r="J11" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>312</v>
@@ -2899,7 +2899,7 @@
         <v>204</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>315</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>23</v>
@@ -2952,7 +2952,7 @@
         <v>39</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
@@ -2980,16 +2980,16 @@
         <v>79</v>
       </c>
       <c r="J13" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>321</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -3003,7 +3003,7 @@
         <v>39</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
@@ -3031,16 +3031,16 @@
         <v>83</v>
       </c>
       <c r="J14" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>321</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -3127,13 +3127,13 @@
       <c r="H16" s="3"/>
       <c r="I16" s="8"/>
       <c r="J16" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="K16" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="L16" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>287</v>
@@ -3152,7 +3152,7 @@
         <v>204</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="114" x14ac:dyDescent="0.25">
@@ -3180,13 +3180,13 @@
         <v>92</v>
       </c>
       <c r="J17" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="L17" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>287</v>
@@ -3205,7 +3205,7 @@
         <v>204</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
@@ -3233,13 +3233,13 @@
       <c r="H18" s="3"/>
       <c r="I18" s="8"/>
       <c r="J18" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="L18" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>287</v>
@@ -3258,7 +3258,7 @@
         <v>204</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="114" x14ac:dyDescent="0.25">
@@ -3286,13 +3286,13 @@
         <v>92</v>
       </c>
       <c r="J19" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="L19" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>287</v>
@@ -3311,7 +3311,7 @@
         <v>204</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -3339,13 +3339,13 @@
       <c r="H20" s="3"/>
       <c r="I20" s="8"/>
       <c r="J20" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>287</v>
@@ -3392,13 +3392,13 @@
       <c r="H21" s="3"/>
       <c r="I21" s="8"/>
       <c r="J21" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>102</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>287</v>
@@ -3445,13 +3445,13 @@
         <v>92</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>102</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>287</v>
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
@@ -3498,19 +3498,19 @@
       <c r="H23" s="3"/>
       <c r="I23" s="8"/>
       <c r="J23" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="K23" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="L23" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="N23" s="11" t="s">
         <v>342</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>343</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
@@ -3523,7 +3523,7 @@
         <v>32</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
@@ -3549,19 +3549,19 @@
       <c r="H24" s="3"/>
       <c r="I24" s="8"/>
       <c r="J24" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="K24" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="L24" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="N24" s="11" t="s">
         <v>342</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>343</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="2" t="s">
@@ -3574,7 +3574,7 @@
         <v>32</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -3602,13 +3602,13 @@
       <c r="H25" s="3"/>
       <c r="I25" s="8"/>
       <c r="J25" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>287</v>
@@ -3655,13 +3655,13 @@
       <c r="H26" s="3"/>
       <c r="I26" s="8"/>
       <c r="J26" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>287</v>
@@ -3708,13 +3708,13 @@
       <c r="H27" s="3"/>
       <c r="I27" s="8"/>
       <c r="J27" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>287</v>
@@ -3851,19 +3851,19 @@
       <c r="H30" s="3"/>
       <c r="I30" s="8"/>
       <c r="J30" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3" t="s">
@@ -3904,13 +3904,13 @@
       <c r="H31" s="3"/>
       <c r="I31" s="8"/>
       <c r="J31" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="L31" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>287</v>
@@ -3957,19 +3957,19 @@
       <c r="H32" s="3"/>
       <c r="I32" s="8"/>
       <c r="J32" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>134</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3" t="s">
@@ -3982,7 +3982,7 @@
         <v>32</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -4010,19 +4010,19 @@
       <c r="H33" s="3"/>
       <c r="I33" s="8"/>
       <c r="J33" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3" t="s">
@@ -4035,7 +4035,7 @@
         <v>32</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -4063,19 +4063,19 @@
       <c r="H34" s="3"/>
       <c r="I34" s="8"/>
       <c r="J34" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3" t="s">
@@ -4088,7 +4088,7 @@
         <v>32</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
@@ -4116,19 +4116,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="8"/>
       <c r="J35" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="K35" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="L35" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="M35" s="8" t="s">
+      <c r="N35" s="11" t="s">
         <v>370</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>371</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>288</v>
@@ -4143,7 +4143,7 @@
         <v>32</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -4171,19 +4171,19 @@
       <c r="H36" s="3"/>
       <c r="I36" s="8"/>
       <c r="J36" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>143</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3" t="s">
@@ -4196,7 +4196,7 @@
         <v>32</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -4224,13 +4224,13 @@
       <c r="H37" s="3"/>
       <c r="I37" s="8"/>
       <c r="J37" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>145</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>287</v>
@@ -4277,13 +4277,13 @@
       <c r="H38" s="3"/>
       <c r="I38" s="8"/>
       <c r="J38" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>287</v>
@@ -4375,19 +4375,19 @@
       <c r="H40" s="3"/>
       <c r="I40" s="8"/>
       <c r="J40" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K40" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="N40" s="11" t="s">
         <v>379</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>380</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>23</v>
@@ -4472,13 +4472,13 @@
       <c r="H42" s="3"/>
       <c r="I42" s="8"/>
       <c r="J42" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>287</v>
@@ -4525,13 +4525,13 @@
       <c r="H43" s="3"/>
       <c r="I43" s="8"/>
       <c r="J43" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="3" t="s">
@@ -4548,7 +4548,7 @@
         <v>32</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="153" x14ac:dyDescent="0.25">
@@ -4576,20 +4576,20 @@
         <v>172</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>23</v>
@@ -4601,7 +4601,7 @@
         <v>39</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
@@ -4629,16 +4629,16 @@
         <v>176</v>
       </c>
       <c r="J45" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="8" t="s">
         <v>386</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>387</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -4652,7 +4652,7 @@
         <v>39</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
@@ -4680,16 +4680,16 @@
         <v>179</v>
       </c>
       <c r="J46" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="K46" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="L46" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="M46" s="8" t="s">
         <v>386</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>387</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -4731,17 +4731,17 @@
       <c r="H47" s="3"/>
       <c r="I47" s="8"/>
       <c r="J47" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M47" s="8"/>
       <c r="N47" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3" t="s">
@@ -4754,7 +4754,7 @@
         <v>32</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
@@ -4782,16 +4782,16 @@
         <v>185</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>184</v>
       </c>
       <c r="L48" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="M48" s="8" t="s">
         <v>390</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>391</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -4833,19 +4833,19 @@
         <v>189</v>
       </c>
       <c r="J49" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="K49" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="L49" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="M49" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="M49" s="8" t="s">
+      <c r="O49" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>23</v>
@@ -4857,7 +4857,7 @@
         <v>204</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
@@ -4885,20 +4885,20 @@
         <v>189</v>
       </c>
       <c r="J50" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="K50" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="L50" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="L50" s="3" t="s">
-        <v>400</v>
-      </c>
       <c r="M50" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P50" s="3" t="s">
         <v>23</v>
@@ -4910,7 +4910,7 @@
         <v>204</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -5028,20 +5028,20 @@
         <v>189</v>
       </c>
       <c r="J53" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="K53" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="L53" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="L53" s="3" t="s">
-        <v>405</v>
-      </c>
       <c r="M53" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P53" s="3" t="s">
         <v>23</v>
@@ -5053,7 +5053,7 @@
         <v>39</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -5126,16 +5126,16 @@
         <v>189</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -5177,16 +5177,16 @@
         <v>189</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -5228,16 +5228,16 @@
         <v>189</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -5279,20 +5279,20 @@
         <v>189</v>
       </c>
       <c r="J58" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>410</v>
-      </c>
       <c r="M58" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>23</v>
@@ -5304,7 +5304,7 @@
         <v>39</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -5545,19 +5545,19 @@
       <c r="H64" s="3"/>
       <c r="I64" s="8"/>
       <c r="J64" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="K64" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="L64" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>415</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3" t="s">
@@ -5641,16 +5641,16 @@
         <v>228</v>
       </c>
       <c r="J66" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="K66" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="L66" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>419</v>
-      </c>
       <c r="M66" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -5664,7 +5664,7 @@
         <v>39</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="142.5" x14ac:dyDescent="0.25">
@@ -5692,19 +5692,19 @@
       <c r="H67" s="3"/>
       <c r="I67" s="8"/>
       <c r="J67" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="K67" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="K67" s="11" t="s">
+      <c r="L67" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="L67" s="3" t="s">
+      <c r="M67" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="M67" s="8" t="s">
+      <c r="N67" s="11" t="s">
         <v>424</v>
-      </c>
-      <c r="N67" s="11" t="s">
-        <v>425</v>
       </c>
       <c r="O67" s="3"/>
       <c r="P67" s="3" t="s">
@@ -5717,7 +5717,7 @@
         <v>32</v>
       </c>
       <c r="S67" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
@@ -5745,19 +5745,19 @@
         <v>234</v>
       </c>
       <c r="J68" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="K68" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="K68" s="11" t="s">
+      <c r="L68" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="L68" s="3" t="s">
+      <c r="M68" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="M68" s="8" t="s">
+      <c r="N68" s="11" t="s">
         <v>424</v>
-      </c>
-      <c r="N68" s="11" t="s">
-        <v>425</v>
       </c>
       <c r="O68" s="3"/>
       <c r="P68" s="3" t="s">
@@ -5770,7 +5770,7 @@
         <v>204</v>
       </c>
       <c r="S68" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
@@ -5798,16 +5798,16 @@
         <v>237</v>
       </c>
       <c r="J69" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="K69" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="L69" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="L69" s="3" t="s">
+      <c r="M69" s="8" t="s">
         <v>430</v>
-      </c>
-      <c r="M69" s="8" t="s">
-        <v>431</v>
       </c>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
@@ -5821,7 +5821,7 @@
         <v>39</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="156.75" x14ac:dyDescent="0.25">
@@ -5849,19 +5849,19 @@
         <v>240</v>
       </c>
       <c r="J70" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="K70" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="L70" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="M70" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O70" s="3"/>
       <c r="P70" s="3" t="s">
@@ -5874,7 +5874,7 @@
         <v>204</v>
       </c>
       <c r="S70" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="51" x14ac:dyDescent="0.25">
@@ -5992,19 +5992,19 @@
         <v>248</v>
       </c>
       <c r="J73" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="K73" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="L73" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="M73" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O73" s="3"/>
       <c r="P73" s="3" t="s">
@@ -6090,19 +6090,19 @@
         <v>256</v>
       </c>
       <c r="J75" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="K75" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="K75" s="3" t="s">
+      <c r="L75" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>443</v>
       </c>
       <c r="M75" s="8" t="s">
         <v>287</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O75" s="3"/>
       <c r="P75" s="3" t="s">
@@ -6115,7 +6115,7 @@
         <v>204</v>
       </c>
       <c r="S75" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -6324,19 +6324,19 @@
         <v>189</v>
       </c>
       <c r="J80" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="K80" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="K80" s="11" t="s">
+      <c r="L80" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="L80" s="3" t="s">
+      <c r="M80" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="N80" s="11" t="s">
         <v>447</v>
-      </c>
-      <c r="M80" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="N80" s="11" t="s">
-        <v>448</v>
       </c>
       <c r="O80" s="3"/>
       <c r="P80" s="3" t="s">
@@ -6349,7 +6349,7 @@
         <v>204</v>
       </c>
       <c r="S80" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -6422,19 +6422,19 @@
         <v>189</v>
       </c>
       <c r="J82" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="K82" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="K82" s="11" t="s">
+      <c r="L82" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="L82" s="3" t="s">
+      <c r="M82" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="M82" s="8" t="s">
+      <c r="N82" s="11" t="s">
         <v>453</v>
-      </c>
-      <c r="N82" s="11" t="s">
-        <v>454</v>
       </c>
       <c r="O82" s="3"/>
       <c r="P82" s="3" t="s">
@@ -6447,7 +6447,7 @@
         <v>204</v>
       </c>
       <c r="S82" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
